--- a/Output/时间轴参数_v0.91.xlsx
+++ b/Output/时间轴参数_v0.91.xlsx
@@ -7,7 +7,8 @@
     <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="#参数说明" sheetId="2" r:id="rId1"/>
+    <sheet name="#参数说明 条件组" sheetId="2" r:id="rId1"/>
+    <sheet name="#参数说明 行为组" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -19,7 +20,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0">
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="E7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +65,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,45 +100,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-某个技能被锁定=不会使用它. </t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
-  <si>
-    <t>值类型</t>
-  </si>
-  <si>
-    <t>参数说明1</t>
-  </si>
-  <si>
-    <t>参数说明2</t>
-  </si>
-  <si>
-    <t>参数说明3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>补充说明</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>参数3</t>
   </si>
   <si>
     <t>Cond:AfterBattleStart:战斗开始后多少秒</t>
@@ -136,7 +128,10 @@
     <t>秒数</t>
   </si>
   <si>
-    <t>Cond:EnemyInLOS:敌人出现在视野里</t>
+    <t>Cond:EnemyInLOS:敌人可选中</t>
+  </si>
+  <si>
+    <t>这个条件一般不单独使用.</t>
   </si>
   <si>
     <r>
@@ -194,10 +189,10 @@
     <t>时间过了多久(秒数)</t>
   </si>
   <si>
-    <t>Cond:EnemyCastSpellByName:敌人使用了包含指定名称的技能</t>
-  </si>
-  <si>
-    <t>对应技能名中包含的字符串,最好是全匹配,保证唯一性.也可以填技能id</t>
+    <t>Cond:EnemyCastSpell:敌人读条使用了某个技能</t>
+  </si>
+  <si>
+    <t>对应有读条的技能名中包含的字符串,最好是全匹配,保证唯一性.也可以填技能id</t>
   </si>
   <si>
     <t>Cond:GameLog:副本内台词/系统提示的监控</t>
@@ -222,6 +217,60 @@
   </si>
   <si>
     <t>xx.xxx</t>
+  </si>
+  <si>
+    <t>#通用</t>
+  </si>
+  <si>
+    <t>Action:SwitchDOT:是否允许使用DOT</t>
+  </si>
+  <si>
+    <t>0代表否,1代表是</t>
+  </si>
+  <si>
+    <t>Action:SwitchAOE:允许AOE</t>
+  </si>
+  <si>
+    <t>Action:CastAbility:优先使用指定能力技</t>
+  </si>
+  <si>
+    <t>能力技的Id,查询方式请看这个单元格的批注</t>
+  </si>
+  <si>
+    <t>Action:CastGCD:优先使用指定GCD</t>
+  </si>
+  <si>
+    <t>GCD的技能Id,查询方式同能力技</t>
+  </si>
+  <si>
+    <t>Action:LockSpell:锁定技能</t>
+  </si>
+  <si>
+    <t>某个技能被锁定 = 不会使用它</t>
+  </si>
+  <si>
+    <t>技能Id</t>
+  </si>
+  <si>
+    <t>0代表解锁,1代表锁定</t>
+  </si>
+  <si>
+    <t>Action:SwitchPotion:是否允许使用爆发药</t>
+  </si>
+  <si>
+    <t>Action:UsePotion:使用爆发药</t>
+  </si>
+  <si>
+    <t>立即使用爆发药.忽略爆发药是否允许的控制.不需要填参数.爆发药的id在爆发药设置中配置.</t>
+  </si>
+  <si>
+    <t>Action:SwitchFinalBurst:倾泻资源模式</t>
+  </si>
+  <si>
+    <t>Action:Burst:是否允许爆发</t>
+  </si>
+  <si>
+    <t>#诗人</t>
   </si>
   <si>
     <t>Action:SongList:设置战斗中接下来的诗人歌单</t>
@@ -244,49 +293,16 @@
     <t>Action:SwitchApex:是否允许使用绝峰箭</t>
   </si>
   <si>
-    <t>0代表否,1代表是</t>
-  </si>
-  <si>
-    <t>Action:SwitchDOT:是否允许使用DOT</t>
-  </si>
-  <si>
-    <t>Action:SwitchAOE:允许AOE</t>
-  </si>
-  <si>
-    <t>Action:CastAbility:优先使用指定能力技</t>
-  </si>
-  <si>
-    <t>能力技的Id,查询方式请看这个单元格的批注</t>
-  </si>
-  <si>
-    <t>Action:CastGCD:优先使用指定GCD</t>
-  </si>
-  <si>
-    <t>GCD的技能Id,查询方式同能力技</t>
-  </si>
-  <si>
-    <t>Action:LockSpell:锁定技能</t>
-  </si>
-  <si>
-    <t>技能Id</t>
-  </si>
-  <si>
-    <t>0代表解锁,1代表锁定</t>
-  </si>
-  <si>
-    <t>Action:SwitchPotion:是否允许使用爆发药</t>
-  </si>
-  <si>
-    <t>Action:UsePotion:使用爆发药</t>
-  </si>
-  <si>
-    <t>立即使用爆发药.忽略爆发药是否允许的控制.不需要填参数.爆发药的id在爆发药设置中配置.</t>
-  </si>
-  <si>
-    <t>Action:SwitchFinalBurst:倾泻资源模式</t>
-  </si>
-  <si>
-    <t>Action:Burst:是否允许爆发</t>
+    <t>#机工</t>
+  </si>
+  <si>
+    <t>Action:BatteryList:电量使用列表</t>
+  </si>
+  <si>
+    <t>从下一次使用电量召唤机器人开始,指定使用电量的队列.
+举例:
+60|80|50|50|100
+就代表着接下来的5次召唤机器人的电量</t>
   </si>
 </sst>
 </file>
@@ -295,11 +311,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +325,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -316,6 +346,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -323,61 +367,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,9 +381,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,6 +398,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -423,6 +437,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -438,8 +453,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,6 +463,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,7 +493,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,19 +502,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,169 +676,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,6 +717,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -690,36 +746,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,15 +785,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -776,6 +793,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -784,10 +825,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,139 +837,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -936,10 +983,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1295,207 +1375,402 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E19"/>
+  <dimension ref="B1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="62.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="18.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="56.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="62.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1" spans="2:5">
-      <c r="B1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="29" customHeight="1" spans="2:6">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" ht="40.5" spans="2:4">
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="3" ht="40.5" spans="2:5">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="1" t="s">
+      <c r="D3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" ht="27" spans="2:5">
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="4" ht="27" spans="2:5">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="2:6">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" ht="21" customHeight="1" spans="2:4">
-      <c r="B6" s="1" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" ht="27" spans="2:5">
-      <c r="B7" s="1" t="s">
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="21" customHeight="1" spans="2:5">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="2:6">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" ht="108" spans="2:3">
-      <c r="B8" s="1" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" ht="27" spans="2:3">
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" ht="27" spans="2:3">
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="18.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="56.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="62.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:6">
+      <c r="A2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:6">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:6">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:6">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:6">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="27" spans="1:6">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:6">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="27" spans="1:6">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:6">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:6">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:6">
+      <c r="A12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="108" spans="1:6">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="27" spans="1:6">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:6">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:6">
+      <c r="A16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="54" spans="1:6">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <commentList sheetStid="3">
+    <comment s:ref="D5" rgbClr="4FCA34"/>
+  </commentList>
+</comments>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Output/时间轴参数_v0.91.xlsx
+++ b/Output/时间轴参数_v0.91.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#参数说明 条件组" sheetId="2" r:id="rId1"/>
@@ -267,7 +267,7 @@
     <t>Action:SwitchFinalBurst:倾泻资源模式</t>
   </si>
   <si>
-    <t>Action:Burst:是否允许爆发</t>
+    <t>Action:SwitchBurst:是否允许爆发</t>
   </si>
   <si>
     <t>#诗人</t>
@@ -310,9 +310,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -332,6 +332,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -339,6 +346,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -346,28 +384,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,9 +408,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,79 +430,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,181 +532,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,17 +720,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,11 +755,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,7 +774,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,11 +796,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,15 +817,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -825,10 +825,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,133 +837,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1377,7 +1377,7 @@
   <sheetPr/>
   <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1528,8 +1528,8 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
